--- a/fund.xlsx
+++ b/fund.xlsx
@@ -68,10 +68,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -366,10 +367,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:G7"/>
+  <dimension ref="A2:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -425,7 +426,28 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="1"/>
+      <c r="A7" s="1">
+        <v>43020</v>
+      </c>
+      <c r="B7">
+        <v>50000</v>
+      </c>
+      <c r="G7">
+        <f t="shared" ref="G7:G8" si="0">G6+B7-D7+E7</f>
+        <v>97316.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
+        <v>43020</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1403.11</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>95913.49</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/fund.xlsx
+++ b/fund.xlsx
@@ -367,10 +367,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:G8"/>
+  <dimension ref="A2:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -433,7 +433,7 @@
         <v>50000</v>
       </c>
       <c r="G7">
-        <f t="shared" ref="G7:G8" si="0">G6+B7-D7+E7</f>
+        <f t="shared" ref="G7:G9" si="0">G6+B7-D7+E7</f>
         <v>97316.6</v>
       </c>
     </row>
@@ -447,6 +447,18 @@
       <c r="G8">
         <f t="shared" si="0"/>
         <v>95913.49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
+        <v>43021</v>
+      </c>
+      <c r="E9">
+        <v>6761.25</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>102674.74</v>
       </c>
     </row>
   </sheetData>

--- a/fund.xlsx
+++ b/fund.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Total</t>
   </si>
@@ -25,6 +25,9 @@
   </si>
   <si>
     <t>Credit</t>
+  </si>
+  <si>
+    <t>Actual</t>
   </si>
 </sst>
 </file>
@@ -68,11 +71,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -367,15 +376,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:G9"/>
+  <dimension ref="A2:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="9" max="9" width="12" style="4" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:7" s="2" customFormat="1">
+    <row r="2" spans="1:9" s="2" customFormat="1">
       <c r="A2" s="2">
         <v>2017</v>
       </c>
@@ -388,8 +400,11 @@
       <c r="G2" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="I2" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1">
         <v>43019</v>
       </c>
@@ -401,7 +416,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:9">
       <c r="A5" s="1">
         <v>43019</v>
       </c>
@@ -413,7 +428,7 @@
         <v>50101</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:9">
       <c r="A6" s="1">
         <v>43019</v>
       </c>
@@ -425,7 +440,7 @@
         <v>47316.6</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:9">
       <c r="A7" s="1">
         <v>43020</v>
       </c>
@@ -433,11 +448,11 @@
         <v>50000</v>
       </c>
       <c r="G7">
-        <f t="shared" ref="G7:G9" si="0">G6+B7-D7+E7</f>
+        <f t="shared" ref="G7:G10" si="0">G6+B7-D7+E7</f>
         <v>97316.6</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:9">
       <c r="A8" s="1">
         <v>43020</v>
       </c>
@@ -449,7 +464,7 @@
         <v>95913.49</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:9">
       <c r="A9" s="1">
         <v>43021</v>
       </c>
@@ -459,6 +474,21 @@
       <c r="G9">
         <f t="shared" si="0"/>
         <v>102674.74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1">
+        <v>43024</v>
+      </c>
+      <c r="E10" s="3">
+        <v>4363.75</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>107038.49</v>
+      </c>
+      <c r="I10" s="4">
+        <v>107023</v>
       </c>
     </row>
   </sheetData>

--- a/fund.xlsx
+++ b/fund.xlsx
@@ -376,10 +376,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:I10"/>
+  <dimension ref="A2:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -448,7 +448,7 @@
         <v>50000</v>
       </c>
       <c r="G7">
-        <f t="shared" ref="G7:G10" si="0">G6+B7-D7+E7</f>
+        <f t="shared" ref="G7:G11" si="0">G6+B7-D7+E7</f>
         <v>97316.6</v>
       </c>
     </row>
@@ -489,6 +489,18 @@
       </c>
       <c r="I10" s="4">
         <v>107023</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1">
+        <v>43031</v>
+      </c>
+      <c r="D11">
+        <v>5422.5</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>101615.99</v>
       </c>
     </row>
   </sheetData>

--- a/fund.xlsx
+++ b/fund.xlsx
@@ -376,10 +376,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:I11"/>
+  <dimension ref="A2:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -501,6 +501,38 @@
       <c r="G11">
         <f t="shared" si="0"/>
         <v>101615.99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1">
+        <v>43032</v>
+      </c>
+      <c r="G12">
+        <f>G13-E13</f>
+        <v>98150.32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1">
+        <v>43033</v>
+      </c>
+      <c r="E13">
+        <v>565</v>
+      </c>
+      <c r="G13">
+        <v>98715.32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="1">
+        <v>43034</v>
+      </c>
+      <c r="D14" s="3">
+        <v>2742.5</v>
+      </c>
+      <c r="G14" s="3">
+        <f>G13+B14-D14+E14</f>
+        <v>95972.82</v>
       </c>
     </row>
   </sheetData>

--- a/fund.xlsx
+++ b/fund.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Total</t>
   </si>
@@ -28,6 +28,9 @@
   </si>
   <si>
     <t>Actual</t>
+  </si>
+  <si>
+    <t>Input</t>
   </si>
 </sst>
 </file>
@@ -71,7 +74,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -80,6 +83,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -376,18 +382,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:I14"/>
+  <dimension ref="A2:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="9" max="9" width="12" style="4" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" s="2" customFormat="1">
+    <row r="2" spans="1:11" s="2" customFormat="1">
       <c r="A2" s="2">
         <v>2017</v>
       </c>
@@ -403,8 +410,11 @@
       <c r="I2" s="5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="K2" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>43019</v>
       </c>
@@ -415,8 +425,12 @@
         <f>B4</f>
         <v>101</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="K4" s="4">
+        <f>SUM(B4:B24)</f>
+        <v>100101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>43019</v>
       </c>
@@ -428,7 +442,7 @@
         <v>50101</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>43019</v>
       </c>
@@ -440,7 +454,7 @@
         <v>47316.6</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>43020</v>
       </c>
@@ -452,7 +466,7 @@
         <v>97316.6</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>43020</v>
       </c>
@@ -464,7 +478,7 @@
         <v>95913.49</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:11">
       <c r="A9" s="1">
         <v>43021</v>
       </c>
@@ -476,7 +490,7 @@
         <v>102674.74</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:11">
       <c r="A10" s="1">
         <v>43024</v>
       </c>
@@ -491,7 +505,7 @@
         <v>107023</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:11">
       <c r="A11" s="1">
         <v>43031</v>
       </c>
@@ -503,7 +517,7 @@
         <v>101615.99</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:11">
       <c r="A12" s="1">
         <v>43032</v>
       </c>
@@ -512,7 +526,7 @@
         <v>98150.32</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:11">
       <c r="A13" s="1">
         <v>43033</v>
       </c>
@@ -523,17 +537,32 @@
         <v>98715.32</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:11">
       <c r="A14" s="1">
-        <v>43034</v>
+        <v>43035</v>
       </c>
       <c r="D14" s="3">
         <v>2742.5</v>
       </c>
       <c r="G14" s="3">
-        <f>G13+B14-D14+E14</f>
-        <v>95972.82</v>
-      </c>
+        <v>95987.36</v>
+      </c>
+      <c r="I14" s="4">
+        <v>95987.36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="1">
+        <v>43038</v>
+      </c>
+      <c r="D15" s="3">
+        <v>3256.25</v>
+      </c>
+      <c r="G15" s="3">
+        <f>G14+B15-D15+E15</f>
+        <v>92731.11</v>
+      </c>
+      <c r="K15" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/fund.xlsx
+++ b/fund.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Daily" sheetId="1" r:id="rId1"/>
+    <sheet name="Fund" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
   <si>
     <t>Total</t>
   </si>
@@ -31,6 +31,9 @@
   </si>
   <si>
     <t>Input</t>
+  </si>
+  <si>
+    <t>Date</t>
   </si>
 </sst>
 </file>
@@ -384,8 +387,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -572,12 +575,107 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="B2:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" s="4" customFormat="1">
+      <c r="B2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4" s="1">
+        <v>43019</v>
+      </c>
+      <c r="D4">
+        <v>101</v>
+      </c>
+      <c r="H4">
+        <f>D4</f>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" s="1">
+        <v>43019</v>
+      </c>
+      <c r="D5">
+        <v>50000</v>
+      </c>
+      <c r="H5">
+        <f>H4+D5-F5</f>
+        <v>50101</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6" s="1">
+        <v>43020</v>
+      </c>
+      <c r="D6">
+        <v>50000</v>
+      </c>
+      <c r="H6">
+        <f t="shared" ref="H6:H9" si="0">H5+D6-F6</f>
+        <v>100101</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7" s="1">
+        <v>43040</v>
+      </c>
+      <c r="D7">
+        <v>20000</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>120101</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" s="1">
+        <v>43045</v>
+      </c>
+      <c r="D8">
+        <v>75000</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>195101</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" s="1">
+        <v>43052</v>
+      </c>
+      <c r="D9">
+        <v>35000</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>230101</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/fund.xlsx
+++ b/fund.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="Daily" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>Total</t>
   </si>
@@ -34,6 +34,24 @@
   </si>
   <si>
     <t>Date</t>
+  </si>
+  <si>
+    <t>Buy</t>
+  </si>
+  <si>
+    <t>Sell</t>
+  </si>
+  <si>
+    <t>Pts</t>
+  </si>
+  <si>
+    <t>Amt</t>
+  </si>
+  <si>
+    <t>Pay In</t>
+  </si>
+  <si>
+    <t>Cur</t>
   </si>
 </sst>
 </file>
@@ -385,14 +403,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:K15"/>
+  <dimension ref="A2:M23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="7" max="7" width="11.140625" customWidth="1"/>
     <col min="9" max="9" width="12" style="4" customWidth="1"/>
     <col min="11" max="11" width="10.85546875" style="4" customWidth="1"/>
   </cols>
@@ -429,8 +448,8 @@
         <v>101</v>
       </c>
       <c r="K4" s="4">
-        <f>SUM(B4:B24)</f>
-        <v>100101</v>
+        <f>SUM(B4:B25)</f>
+        <v>145101</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -566,6 +585,94 @@
         <v>92731.11</v>
       </c>
       <c r="K15" s="6"/>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="G17">
+        <v>250212.79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="1">
+        <v>43059</v>
+      </c>
+      <c r="D18">
+        <v>3917.99</v>
+      </c>
+      <c r="G18">
+        <f>G17-D18+E18</f>
+        <v>246294.80000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="1">
+        <v>43060</v>
+      </c>
+      <c r="D19">
+        <v>3480</v>
+      </c>
+      <c r="G19">
+        <f>G18-D19+E19</f>
+        <v>242814.80000000002</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M19" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="1">
+        <v>43063</v>
+      </c>
+      <c r="D20">
+        <v>1761</v>
+      </c>
+      <c r="G20">
+        <f>G19-D20+E20</f>
+        <v>241053.80000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="1">
+        <v>43066</v>
+      </c>
+      <c r="B21">
+        <v>45000</v>
+      </c>
+      <c r="G21">
+        <f>G20+B21-D21+E21</f>
+        <v>286053.80000000005</v>
+      </c>
+      <c r="I21" s="5">
+        <v>286052.25</v>
+      </c>
+      <c r="K21" s="5">
+        <v>275101</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="1">
+        <v>43066</v>
+      </c>
+      <c r="E23">
+        <v>6700</v>
+      </c>
+      <c r="G23">
+        <f>I21+E23</f>
+        <v>292752.25</v>
+      </c>
+      <c r="K23" s="4">
+        <f>G23-K21</f>
+        <v>17651.25</v>
+      </c>
+      <c r="M23">
+        <f>K23/75</f>
+        <v>235.35</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -575,10 +682,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:H9"/>
+  <dimension ref="B2:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -635,7 +742,7 @@
         <v>50000</v>
       </c>
       <c r="H6">
-        <f t="shared" ref="H6:H9" si="0">H5+D6-F6</f>
+        <f t="shared" ref="H6:H8" si="0">H5+D6-F6</f>
         <v>100101</v>
       </c>
     </row>
@@ -671,8 +778,20 @@
         <v>35000</v>
       </c>
       <c r="H9">
-        <f t="shared" si="0"/>
+        <f>H8+D9-F9</f>
         <v>230101</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8">
+      <c r="B10" s="1">
+        <v>43066</v>
+      </c>
+      <c r="D10">
+        <v>45000</v>
+      </c>
+      <c r="H10">
+        <f>H9+D10-F10</f>
+        <v>275101</v>
       </c>
     </row>
   </sheetData>
@@ -682,12 +801,80 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="C1:I8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="3:9" s="5" customFormat="1">
+      <c r="C1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="3:9">
+      <c r="C3">
+        <v>32.15</v>
+      </c>
+      <c r="E3">
+        <v>109.95</v>
+      </c>
+    </row>
+    <row r="4" spans="3:9">
+      <c r="C4">
+        <v>35.15</v>
+      </c>
+      <c r="E4">
+        <v>113.65</v>
+      </c>
+    </row>
+    <row r="5" spans="3:9">
+      <c r="C5">
+        <v>170.15</v>
+      </c>
+      <c r="E5">
+        <v>46.95</v>
+      </c>
+    </row>
+    <row r="6" spans="3:9">
+      <c r="C6">
+        <v>31.15</v>
+      </c>
+      <c r="E6">
+        <v>88.95</v>
+      </c>
+    </row>
+    <row r="8" spans="3:9">
+      <c r="C8">
+        <f>SUM(C3:C6)</f>
+        <v>268.59999999999997</v>
+      </c>
+      <c r="E8">
+        <f>SUM(E3:E6)</f>
+        <v>359.5</v>
+      </c>
+      <c r="G8">
+        <f>E8-C8</f>
+        <v>90.900000000000034</v>
+      </c>
+      <c r="I8">
+        <f>G8*75</f>
+        <v>6817.5000000000027</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/fund.xlsx
+++ b/fund.xlsx
@@ -403,10 +403,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:M23"/>
+  <dimension ref="A2:M24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -659,19 +659,39 @@
         <v>43066</v>
       </c>
       <c r="E23">
-        <v>6700</v>
+        <v>6583.65</v>
       </c>
       <c r="G23">
-        <f>I21+E23</f>
-        <v>292752.25</v>
+        <f>I21+E23-D23</f>
+        <v>292635.90000000002</v>
       </c>
       <c r="K23" s="4">
         <f>G23-K21</f>
-        <v>17651.25</v>
+        <v>17534.900000000023</v>
       </c>
       <c r="M23">
         <f>K23/75</f>
-        <v>235.35</v>
+        <v>233.79866666666697</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="1">
+        <v>43065</v>
+      </c>
+      <c r="D24">
+        <v>2281.56</v>
+      </c>
+      <c r="G24">
+        <f>G23-D24+E24+B24</f>
+        <v>290354.34000000003</v>
+      </c>
+      <c r="K24" s="4">
+        <f>G24-K21</f>
+        <v>15253.340000000026</v>
+      </c>
+      <c r="M24">
+        <f>K24/75</f>
+        <v>203.37786666666702</v>
       </c>
     </row>
   </sheetData>

--- a/fund.xlsx
+++ b/fund.xlsx
@@ -403,10 +403,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:M24"/>
+  <dimension ref="A2:M26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -676,7 +676,7 @@
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="1">
-        <v>43065</v>
+        <v>43067</v>
       </c>
       <c r="D24">
         <v>2281.56</v>
@@ -692,6 +692,46 @@
       <c r="M24">
         <f>K24/75</f>
         <v>203.37786666666702</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="1">
+        <v>43068</v>
+      </c>
+      <c r="E25">
+        <v>5744.24</v>
+      </c>
+      <c r="G25">
+        <f>G24-D25+E25+B25</f>
+        <v>296098.58</v>
+      </c>
+      <c r="K25" s="4">
+        <f>G25-K21</f>
+        <v>20997.580000000016</v>
+      </c>
+      <c r="M25">
+        <f>K25/75</f>
+        <v>279.96773333333357</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="1">
+        <v>43069</v>
+      </c>
+      <c r="E26">
+        <v>2108.8200000000002</v>
+      </c>
+      <c r="G26">
+        <f>G25-D26+E26+B26</f>
+        <v>298207.40000000002</v>
+      </c>
+      <c r="K26" s="4">
+        <f>G26-K21</f>
+        <v>23106.400000000023</v>
+      </c>
+      <c r="M26">
+        <f>K26/75</f>
+        <v>308.08533333333366</v>
       </c>
     </row>
   </sheetData>
@@ -824,7 +864,7 @@
   <dimension ref="C1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="L11" sqref="L2:L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/fund.xlsx
+++ b/fund.xlsx
@@ -95,18 +95,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -403,20 +399,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:M26"/>
+  <dimension ref="A2:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="7" max="7" width="11.140625" customWidth="1"/>
-    <col min="9" max="9" width="12" style="4" customWidth="1"/>
-    <col min="11" max="11" width="10.85546875" style="4" customWidth="1"/>
+    <col min="9" max="9" width="12" style="3" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" s="2" customFormat="1">
+    <row r="2" spans="1:13" s="2" customFormat="1">
       <c r="A2" s="2">
         <v>2017</v>
       </c>
@@ -429,309 +425,300 @@
       <c r="G2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="1">
-        <v>43019</v>
-      </c>
-      <c r="B4">
-        <v>101</v>
-      </c>
-      <c r="G4">
-        <f>B4</f>
-        <v>101</v>
-      </c>
-      <c r="K4" s="4">
-        <f>SUM(B4:B25)</f>
-        <v>145101</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="1">
-        <v>43019</v>
-      </c>
-      <c r="B5">
-        <v>50000</v>
-      </c>
-      <c r="G5">
-        <f>G4+B5-D5+E5</f>
-        <v>50101</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+    <row r="4" spans="1:13">
+      <c r="A4" s="1"/>
+      <c r="I4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="1"/>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
-        <v>43019</v>
-      </c>
-      <c r="D6">
-        <v>2784.4</v>
-      </c>
-      <c r="G6">
-        <f>G5+B6-D6+E6</f>
-        <v>47316.6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="1">
-        <v>43020</v>
-      </c>
-      <c r="B7">
-        <v>50000</v>
-      </c>
-      <c r="G7">
-        <f t="shared" ref="G7:G11" si="0">G6+B7-D7+E7</f>
-        <v>97316.6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+        <v>43066</v>
+      </c>
+      <c r="B6">
+        <v>45000</v>
+      </c>
+      <c r="I6" s="4">
+        <v>286052.25</v>
+      </c>
+      <c r="K6" s="4">
+        <v>275101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
-        <v>43020</v>
-      </c>
-      <c r="D8" s="3">
-        <v>1403.11</v>
+        <v>43066</v>
+      </c>
+      <c r="E8">
+        <v>6583.65</v>
       </c>
       <c r="G8">
+        <f>I6+E8-D8</f>
+        <v>292635.90000000002</v>
+      </c>
+      <c r="K8" s="3">
+        <f>G8-K6</f>
+        <v>17534.900000000023</v>
+      </c>
+      <c r="M8">
+        <f t="shared" ref="M8:M17" si="0">K8/75</f>
+        <v>233.79866666666697</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="1">
+        <v>43067</v>
+      </c>
+      <c r="D9">
+        <v>2281.56</v>
+      </c>
+      <c r="G9">
+        <f t="shared" ref="G9:G20" si="1">G8-D9+E9+B9</f>
+        <v>290354.34000000003</v>
+      </c>
+      <c r="K9" s="3">
+        <f>G9-K6</f>
+        <v>15253.340000000026</v>
+      </c>
+      <c r="M9">
         <f t="shared" si="0"/>
-        <v>95913.49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="1">
-        <v>43021</v>
-      </c>
-      <c r="E9">
-        <v>6761.25</v>
-      </c>
-      <c r="G9">
+        <v>203.37786666666702</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="1">
+        <v>43068</v>
+      </c>
+      <c r="E10">
+        <v>5744.24</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>296098.58</v>
+      </c>
+      <c r="K10" s="3">
+        <f>G10-K6</f>
+        <v>20997.580000000016</v>
+      </c>
+      <c r="M10">
         <f t="shared" si="0"/>
-        <v>102674.74</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="1">
-        <v>43024</v>
-      </c>
-      <c r="E10" s="3">
-        <v>4363.75</v>
-      </c>
-      <c r="G10">
+        <v>279.96773333333357</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="1">
+        <v>43069</v>
+      </c>
+      <c r="E11">
+        <v>2108.8200000000002</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>298207.40000000002</v>
+      </c>
+      <c r="K11" s="3">
+        <f>G11-K6</f>
+        <v>23106.400000000023</v>
+      </c>
+      <c r="M11">
         <f t="shared" si="0"/>
-        <v>107038.49</v>
-      </c>
-      <c r="I10" s="4">
-        <v>107023</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="1">
-        <v>43031</v>
-      </c>
-      <c r="D11">
-        <v>5422.5</v>
-      </c>
-      <c r="G11">
+        <v>308.08533333333366</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="1">
+        <v>43070</v>
+      </c>
+      <c r="D12">
+        <v>1519.67</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>296687.73000000004</v>
+      </c>
+      <c r="K12" s="3">
+        <f>G12-K6</f>
+        <v>21586.73000000004</v>
+      </c>
+      <c r="M12">
         <f t="shared" si="0"/>
-        <v>101615.99</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="1">
-        <v>43032</v>
-      </c>
-      <c r="G12">
-        <f>G13-E13</f>
-        <v>98150.32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+        <v>287.82306666666722</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
-        <v>43033</v>
-      </c>
-      <c r="E13">
-        <v>565</v>
+        <v>43073</v>
+      </c>
+      <c r="D13">
+        <v>1519.67</v>
       </c>
       <c r="G13">
-        <v>98715.32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
+        <f t="shared" si="1"/>
+        <v>295168.06000000006</v>
+      </c>
+      <c r="K13" s="3">
+        <f>G13-K6</f>
+        <v>20067.060000000056</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="0"/>
+        <v>267.56080000000077</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
-        <v>43035</v>
-      </c>
-      <c r="D14" s="3">
-        <v>2742.5</v>
-      </c>
-      <c r="G14" s="3">
-        <v>95987.36</v>
-      </c>
-      <c r="I14" s="4">
-        <v>95987.36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
+        <v>43074</v>
+      </c>
+      <c r="D14">
+        <v>1495.04</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>293673.02000000008</v>
+      </c>
+      <c r="K14" s="3">
+        <f>G14-K6</f>
+        <v>18572.020000000077</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="0"/>
+        <v>247.62693333333436</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
-        <v>43038</v>
-      </c>
-      <c r="D15" s="3">
-        <v>3256.25</v>
-      </c>
-      <c r="G15" s="3">
-        <f>G14+B15-D15+E15</f>
-        <v>92731.11</v>
-      </c>
-      <c r="K15" s="6"/>
+        <v>43075</v>
+      </c>
+      <c r="D15">
+        <v>1713.55</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>291959.47000000009</v>
+      </c>
+      <c r="K15" s="3">
+        <f>G15-K6</f>
+        <v>16858.470000000088</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="0"/>
+        <v>224.77960000000118</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="1">
+        <v>43076</v>
+      </c>
+      <c r="E16">
+        <v>15262.89</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>307222.3600000001</v>
+      </c>
+      <c r="K16" s="3">
+        <f>G16-K6</f>
+        <v>32121.360000000102</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="0"/>
+        <v>428.28480000000138</v>
+      </c>
     </row>
     <row r="17" spans="1:13">
+      <c r="A17" s="1">
+        <v>43077</v>
+      </c>
+      <c r="D17">
+        <v>4941.5200000000004</v>
+      </c>
       <c r="G17">
-        <v>250212.79</v>
+        <f t="shared" si="1"/>
+        <v>302280.84000000008</v>
+      </c>
+      <c r="K17" s="3">
+        <f>G17-K6</f>
+        <v>27179.840000000084</v>
+      </c>
+      <c r="M17">
+        <f>K17/75</f>
+        <v>362.39786666666777</v>
       </c>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="1">
-        <v>43059</v>
+        <v>43080</v>
       </c>
       <c r="D18">
-        <v>3917.99</v>
+        <v>5762.52</v>
       </c>
       <c r="G18">
-        <f>G17-D18+E18</f>
-        <v>246294.80000000002</v>
+        <f t="shared" si="1"/>
+        <v>296518.32000000007</v>
+      </c>
+      <c r="K18" s="3">
+        <f>G18-K6</f>
+        <v>21417.320000000065</v>
+      </c>
+      <c r="M18">
+        <f t="shared" ref="M18:M20" si="2">K18/75</f>
+        <v>285.56426666666755</v>
       </c>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="1">
-        <v>43060</v>
+        <v>43081</v>
       </c>
       <c r="D19">
-        <v>3480</v>
+        <v>1678.71</v>
       </c>
       <c r="G19">
-        <f>G18-D19+E19</f>
-        <v>242814.80000000002</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K19" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="M19" s="5" t="s">
-        <v>8</v>
+        <f t="shared" si="1"/>
+        <v>294839.61000000004</v>
+      </c>
+      <c r="K19" s="3">
+        <f>G19-K6</f>
+        <v>19738.610000000044</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="2"/>
+        <v>263.18146666666723</v>
       </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="1">
-        <v>43063</v>
+        <v>43082</v>
       </c>
       <c r="D20">
-        <v>1761</v>
+        <v>3302.76</v>
       </c>
       <c r="G20">
-        <f>G19-D20+E20</f>
-        <v>241053.80000000002</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
-      <c r="A21" s="1">
-        <v>43066</v>
-      </c>
-      <c r="B21">
-        <v>45000</v>
-      </c>
-      <c r="G21">
-        <f>G20+B21-D21+E21</f>
-        <v>286053.80000000005</v>
-      </c>
-      <c r="I21" s="5">
-        <v>286052.25</v>
-      </c>
-      <c r="K21" s="5">
-        <v>275101</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
-      <c r="A23" s="1">
-        <v>43066</v>
-      </c>
-      <c r="E23">
-        <v>6583.65</v>
-      </c>
-      <c r="G23">
-        <f>I21+E23-D23</f>
-        <v>292635.90000000002</v>
-      </c>
-      <c r="K23" s="4">
-        <f>G23-K21</f>
-        <v>17534.900000000023</v>
-      </c>
-      <c r="M23">
-        <f>K23/75</f>
-        <v>233.79866666666697</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
-      <c r="A24" s="1">
-        <v>43067</v>
-      </c>
-      <c r="D24">
-        <v>2281.56</v>
-      </c>
-      <c r="G24">
-        <f>G23-D24+E24+B24</f>
-        <v>290354.34000000003</v>
-      </c>
-      <c r="K24" s="4">
-        <f>G24-K21</f>
-        <v>15253.340000000026</v>
-      </c>
-      <c r="M24">
-        <f>K24/75</f>
-        <v>203.37786666666702</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
-      <c r="A25" s="1">
-        <v>43068</v>
-      </c>
-      <c r="E25">
-        <v>5744.24</v>
-      </c>
-      <c r="G25">
-        <f>G24-D25+E25+B25</f>
-        <v>296098.58</v>
-      </c>
-      <c r="K25" s="4">
-        <f>G25-K21</f>
-        <v>20997.580000000016</v>
-      </c>
-      <c r="M25">
-        <f>K25/75</f>
-        <v>279.96773333333357</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
-      <c r="A26" s="1">
-        <v>43069</v>
-      </c>
-      <c r="E26">
-        <v>2108.8200000000002</v>
-      </c>
-      <c r="G26">
-        <f>G25-D26+E26+B26</f>
-        <v>298207.40000000002</v>
-      </c>
-      <c r="K26" s="4">
-        <f>G26-K21</f>
-        <v>23106.400000000023</v>
-      </c>
-      <c r="M26">
-        <f>K26/75</f>
-        <v>308.08533333333366</v>
+        <f t="shared" si="1"/>
+        <v>291536.85000000003</v>
+      </c>
+      <c r="K20" s="3">
+        <f>G20-K6</f>
+        <v>16435.850000000035</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="2"/>
+        <v>219.14466666666712</v>
       </c>
     </row>
   </sheetData>
@@ -755,18 +742,18 @@
     <col min="8" max="8" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" s="4" customFormat="1">
-      <c r="B2" s="5" t="s">
+    <row r="2" spans="2:8" s="3" customFormat="1">
+      <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5" t="s">
+      <c r="G2" s="4"/>
+      <c r="H2" s="4" t="s">
         <v>0</v>
       </c>
     </row>
@@ -869,17 +856,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="3:9" s="5" customFormat="1">
-      <c r="C1" s="5" t="s">
+    <row r="1" spans="3:9" s="4" customFormat="1">
+      <c r="C1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="4" t="s">
         <v>9</v>
       </c>
     </row>
